--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_439__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_439__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,55 +6118,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.63750648498535</c:v>
+                  <c:v>21.63750457763672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54.73308181762695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.91259765625</c:v>
+                  <c:v>40.91260147094727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.8274040222168</c:v>
+                  <c:v>33.82740783691406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.88407230377197</c:v>
+                  <c:v>10.88407421112061</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>47.19319152832031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.2406063079834</c:v>
+                  <c:v>20.24060440063477</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>54.02379608154297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.3980827331543</c:v>
+                  <c:v>51.39808654785156</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>38.54980087280273</c:v>
@@ -6175,7 +6175,7 @@
                   <c:v>51.04872512817383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54.58174896240234</c:v>
+                  <c:v>54.58175659179688</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>12.08938884735107</c:v>
@@ -6184,7 +6184,7 @@
                   <c:v>48.91209030151367</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.17969131469727</c:v>
+                  <c:v>35.1796875</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>42.37118911743164</c:v>
@@ -6193,43 +6193,43 @@
                   <c:v>53.17253875732422</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.375486373901367</c:v>
+                  <c:v>6.375487327575684</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.48423385620117</c:v>
+                  <c:v>45.48423767089844</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>56.89259719848633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.38869476318359</c:v>
+                  <c:v>57.38869857788086</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>46.89644622802734</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.17128562927246</c:v>
+                  <c:v>21.17128944396973</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.201847553253174</c:v>
+                  <c:v>6.201848030090332</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>52.63471984863281</c:v>
@@ -6238,157 +6238,157 @@
                   <c:v>26.55091285705566</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>63.38934707641602</c:v>
+                  <c:v>63.38935089111328</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.456779956817627</c:v>
+                  <c:v>-3.456778287887573</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44.06612777709961</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.59926986694336</c:v>
+                  <c:v>41.59927368164062</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.78707790374756</c:v>
+                  <c:v>10.78708076477051</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43.35213470458984</c:v>
+                  <c:v>43.35214233398438</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.2722463607788086</c:v>
+                  <c:v>-0.2722461223602295</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>33.26155853271484</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>10.17469120025635</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54.19184112548828</c:v>
+                  <c:v>54.19183731079102</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>50.8793830871582</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.846704483032227</c:v>
+                  <c:v>6.846707344055176</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43.1893310546875</c:v>
+                  <c:v>43.18933486938477</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>42.97189331054688</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>12.99773120880127</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>52.95182418823242</c:v>
+                  <c:v>52.95183181762695</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.85955810546875</c:v>
+                  <c:v>42.85955429077148</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.12384295463562</c:v>
+                  <c:v>-2.123842716217041</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>35.44111251831055</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>44.99864196777344</c:v>
+                  <c:v>44.99863815307617</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>41.79079437255859</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>22.47318649291992</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43.79545211791992</c:v>
+                  <c:v>43.79545974731445</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>18.87677383422852</c:v>
+                  <c:v>18.87677764892578</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>25.07165908813477</c:v>
+                  <c:v>25.07165718078613</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>29.10237503051758</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>46.74170303344727</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35.19547271728516</c:v>
+                  <c:v>35.19546890258789</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>41.24742126464844</c:v>
+                  <c:v>41.2474250793457</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>49.5161247253418</c:v>
+                  <c:v>49.51612854003906</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>53.61859130859375</c:v>
@@ -6397,31 +6397,31 @@
                   <c:v>53.04424667358398</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>41.66402053833008</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.935502171516418</c:v>
+                  <c:v>1.935502409934998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>46.28207778930664</c:v>
+                  <c:v>46.28207015991211</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>50.36959838867188</c:v>
+                  <c:v>50.36960220336914</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>36.87094116210938</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>51.34756469726562</c:v>
+                  <c:v>51.34755706787109</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.3939106464385986</c:v>
+                  <c:v>-0.393910676240921</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>0.4551880955696106</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>21.63750648498535</v>
+        <v>21.63750457763672</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>40.91259765625</v>
+        <v>40.91260147094727</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.8274040222168</v>
+        <v>33.82740783691406</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.88407230377197</v>
+        <v>10.88407421112061</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>20.2406063079834</v>
+        <v>20.24060440063477</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>51.3980827331543</v>
+        <v>51.39808654785156</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>51.6611</v>
       </c>
       <c r="F21">
-        <v>54.58174896240234</v>
+        <v>54.58175659179688</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.17969131469727</v>
+        <v>35.1796875</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6.375486373901367</v>
+        <v>6.375487327575684</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>45.48423385620117</v>
+        <v>45.48423767089844</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>57.38869476318359</v>
+        <v>57.38869857788086</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>21.17128562927246</v>
+        <v>21.17128944396973</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>6.201847553253174</v>
+        <v>6.201848030090332</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>63.38934707641602</v>
+        <v>63.38935089111328</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>-3.456779956817627</v>
+        <v>-3.456778287887573</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>41.59926986694336</v>
+        <v>41.59927368164062</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10.78707790374756</v>
+        <v>10.78708076477051</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>43.35213470458984</v>
+        <v>43.35214233398438</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.2722463607788086</v>
+        <v>-0.2722461223602295</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>54.19184112548828</v>
+        <v>54.19183731079102</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>6.846704483032227</v>
+        <v>6.846707344055176</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>52.8419</v>
       </c>
       <c r="F60">
-        <v>43.1893310546875</v>
+        <v>43.18933486938477</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>52.95182418823242</v>
+        <v>52.95183181762695</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>45.7573</v>
       </c>
       <c r="F66">
-        <v>42.85955810546875</v>
+        <v>42.85955429077148</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-2.12384295463562</v>
+        <v>-2.123842716217041</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>44.99864196777344</v>
+        <v>44.99863815307617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.928</v>
       </c>
       <c r="F80">
-        <v>43.79545211791992</v>
+        <v>43.79545974731445</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>18.87677383422852</v>
+        <v>18.87677764892578</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>25.07165908813477</v>
+        <v>25.07165718078613</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>35.19547271728516</v>
+        <v>35.19546890258789</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>41.24742126464844</v>
+        <v>41.2474250793457</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>49.5161247253418</v>
+        <v>49.51612854003906</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.935502171516418</v>
+        <v>1.935502409934998</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>46.28207778930664</v>
+        <v>46.28207015991211</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>50.36959838867188</v>
+        <v>50.36960220336914</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>51.34756469726562</v>
+        <v>51.34755706787109</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>-0.3939106464385986</v>
+        <v>-0.393910676240921</v>
       </c>
     </row>
     <row r="104" spans="1:6">
